--- a/chat/list.xlsx
+++ b/chat/list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LeeJunYoung/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LeeJunYoung/Desktop/chatbot/chat/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,13 +27,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>김인</t>
+    <t>이창주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김인</t>
+    <t>최원준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소미</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +364,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -376,7 +380,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/chat/list.xlsx
+++ b/chat/list.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>이창주</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,6 +38,18 @@
   </si>
   <si>
     <t>주소미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이준영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최유진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -383,6 +395,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/chat/list.xlsx
+++ b/chat/list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
+    <workbookView xWindow="11340" yWindow="460" windowWidth="28800" windowHeight="16460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -409,6 +409,56 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
